--- a/plantillaHPV/trazabilidad.xlsx
+++ b/plantillaHPV/trazabilidad.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Hpv\plantillaHPV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\HPV2018\plantillaHPV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1881,19 +1881,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1209675</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>237638</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>108656</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1912,8 +1912,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2924175" y="257175"/>
-          <a:ext cx="7571888" cy="823031"/>
+          <a:off x="1609725" y="0"/>
+          <a:ext cx="10058400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2359,7 +2359,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Departamento">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Departamento">
   <location ref="A13:A15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="54">
     <pivotField showAll="0"/>
@@ -2480,7 +2480,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Departamento">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Departamento">
   <location ref="A47:B49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="54">
     <pivotField showAll="0"/>

--- a/plantillaHPV/trazabilidad.xlsx
+++ b/plantillaHPV/trazabilidad.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="2" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1881,19 +1881,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1912,7 +1912,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1609725" y="0"/>
+          <a:off x="1714500" y="0"/>
           <a:ext cx="10058400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2359,7 +2359,134 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Departamento">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Departamento">
+  <location ref="A47:B49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="54">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="28">
+        <item m="1" x="21"/>
+        <item m="1" x="9"/>
+        <item m="1" x="18"/>
+        <item m="1" x="4"/>
+        <item m="1" x="1"/>
+        <item m="1" x="3"/>
+        <item m="1" x="23"/>
+        <item m="1" x="22"/>
+        <item m="1" x="24"/>
+        <item m="1" x="19"/>
+        <item m="1" x="20"/>
+        <item m="1" x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="6"/>
+        <item m="1" x="12"/>
+        <item m="1" x="8"/>
+        <item m="1" x="14"/>
+        <item m="1" x="25"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="26"/>
+        <item m="1" x="16"/>
+        <item m="1" x="2"/>
+        <item m="1" x="17"/>
+        <item m="1" x="15"/>
+        <item m="1" x="7"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="26"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Promedio Asistencia" fld="42" subtotal="average" baseField="2" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7" rowHeaderCaption="Departamento">
   <location ref="A13:A15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="54">
     <pivotField showAll="0"/>
@@ -2470,133 +2597,6 @@
   <pageFields count="1">
     <pageField fld="45" hier="-1"/>
   </pageFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Departamento">
-  <location ref="A47:B49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="54">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="28">
-        <item m="1" x="21"/>
-        <item m="1" x="9"/>
-        <item m="1" x="18"/>
-        <item m="1" x="4"/>
-        <item m="1" x="1"/>
-        <item m="1" x="3"/>
-        <item m="1" x="23"/>
-        <item m="1" x="22"/>
-        <item m="1" x="24"/>
-        <item m="1" x="19"/>
-        <item m="1" x="20"/>
-        <item m="1" x="5"/>
-        <item m="1" x="10"/>
-        <item m="1" x="6"/>
-        <item m="1" x="12"/>
-        <item m="1" x="8"/>
-        <item m="1" x="14"/>
-        <item m="1" x="25"/>
-        <item m="1" x="13"/>
-        <item m="1" x="11"/>
-        <item m="1" x="26"/>
-        <item m="1" x="16"/>
-        <item m="1" x="2"/>
-        <item m="1" x="17"/>
-        <item m="1" x="15"/>
-        <item m="1" x="7"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="26"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Promedio Asistencia" fld="42" subtotal="average" baseField="2" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
